--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT8"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45138.66908870325</v>
+        <v>45138.6690887037</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1582,10 +1582,156 @@
       <c r="AR8" t="n">
         <v>0</v>
       </c>
-      <c r="AS8" t="b">
+      <c r="AS8" t="n">
         <v>1</v>
       </c>
       <c r="AT8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>007</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45138.84155860076</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>35240</v>
+      </c>
+      <c r="K9" t="n">
+        <v>36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>330</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>#6 (D19)</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6411</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>#2 (D6)</t>
+        </is>
+      </c>
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45138.84155860076</v>
+        <v>45138.84155859954</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1728,10 +1728,156 @@
       <c r="AR9" t="n">
         <v>0</v>
       </c>
-      <c r="AS9" t="b">
+      <c r="AS9" t="n">
         <v>1</v>
       </c>
       <c r="AT9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>009</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45138.85483683326</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35240</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="N10" t="n">
+        <v>36</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>330</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>#6 (D19)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6411</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>#2 (D6)</t>
+        </is>
+      </c>
+      <c r="Z10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="過往預測" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="過往預測" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AT11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45138.85483683326</v>
+        <v>45138.8548368287</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1874,10 +1874,156 @@
       <c r="AR10" t="n">
         <v>0</v>
       </c>
-      <c r="AS10" t="b">
+      <c r="AS10" t="n">
         <v>1</v>
       </c>
       <c r="AT10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>088</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45138.54698268256</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35240</v>
+      </c>
+      <c r="K11" t="n">
+        <v>36</v>
+      </c>
+      <c r="L11" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="N11" t="n">
+        <v>36</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>330</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>#6 (D19)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>8</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6411</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>#2 (D6)</t>
+        </is>
+      </c>
+      <c r="Z11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT11"/>
+  <dimension ref="A1:AT12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45138.54698268256</v>
+        <v>45138.54698268518</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2020,10 +2020,156 @@
       <c r="AR11" t="n">
         <v>0</v>
       </c>
-      <c r="AS11" t="b">
+      <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>099</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45138.54981533952</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35240</v>
+      </c>
+      <c r="K12" t="n">
+        <v>36</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="N12" t="n">
+        <v>36</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>330</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>#6 (D19)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>8</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6411</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>#2 (D6)</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.1749</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.6384</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AT13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45138.54981533952</v>
+        <v>45138.54981533565</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2166,10 +2166,156 @@
       <c r="AR12" t="n">
         <v>0</v>
       </c>
-      <c r="AS12" t="b">
+      <c r="AS12" t="n">
         <v>1</v>
       </c>
       <c r="AT12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PY_test</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45138.55259369745</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>280</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35240</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="M13" t="n">
+        <v>24.265</v>
+      </c>
+      <c r="N13" t="n">
+        <v>36</v>
+      </c>
+      <c r="O13" t="n">
+        <v>900</v>
+      </c>
+      <c r="P13" t="n">
+        <v>270</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>330</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>#6 (D19)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4200</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6411</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>#2 (D6)</t>
+        </is>
+      </c>
+      <c r="Z13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4200</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>135</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="n">
+        <v>0.0174</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.1179</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.7843</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.0239</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT13"/>
+  <dimension ref="A1:AT14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45138.55259369745</v>
+        <v>45138.55259369213</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2312,10 +2312,150 @@
       <c r="AR13" t="n">
         <v>0</v>
       </c>
-      <c r="AS13" t="b">
+      <c r="AS13" t="n">
         <v>1</v>
       </c>
       <c r="AT13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="2" t="n">
+        <v>45138.60052917927</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K14" t="n">
+        <v>50</v>
+      </c>
+      <c r="L14" t="n">
+        <v>40</v>
+      </c>
+      <c r="M14" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N14" t="n">
+        <v>50</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>200</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>16</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT14"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,7 +2320,7 @@
     <row r="14">
       <c r="A14" t="inlineStr"/>
       <c r="B14" s="2" t="n">
-        <v>45138.60052917927</v>
+        <v>45138.60052917824</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2456,6 +2456,150 @@
       </c>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45138.60102980463</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
+      <c r="L15" t="n">
+        <v>40</v>
+      </c>
+      <c r="M15" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N15" t="n">
+        <v>50</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>200</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="n">
+        <v>0.0177</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.1749</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.6384</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.0297</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT15"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,7 +2464,7 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45138.60102980463</v>
+        <v>45138.60102980324</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2600,6 +2600,146 @@
       </c>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="2" t="n">
+        <v>45138.61874475571</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
+      <c r="L16" t="n">
+        <v>40</v>
+      </c>
+      <c r="M16" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N16" t="n">
+        <v>50</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>200</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,7 +2604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr"/>
       <c r="B16" s="2" t="n">
-        <v>45138.61874475571</v>
+        <v>45138.61874475695</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2740,6 +2740,150 @@
       </c>
       <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Kun say hi</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45138.61943199812</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>210</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
+      <c r="L17" t="n">
+        <v>40</v>
+      </c>
+      <c r="M17" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N17" t="n">
+        <v>50</v>
+      </c>
+      <c r="O17" t="n">
+        <v>600</v>
+      </c>
+      <c r="P17" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>200</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>16</v>
+      </c>
+      <c r="U17" t="n">
+        <v>5800</v>
+      </c>
+      <c r="V17" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG17" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.8163</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45138.61943199812</v>
+        <v>45138.61943200231</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2884,6 +2884,150 @@
       </c>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Kun say hi</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45138.61956073543</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>210</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50</v>
+      </c>
+      <c r="L18" t="n">
+        <v>40</v>
+      </c>
+      <c r="M18" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N18" t="n">
+        <v>50</v>
+      </c>
+      <c r="O18" t="n">
+        <v>600</v>
+      </c>
+      <c r="P18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>200</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>16</v>
+      </c>
+      <c r="U18" t="n">
+        <v>5800</v>
+      </c>
+      <c r="V18" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5800</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG18" t="n">
+        <v>180</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="n">
+        <v>0.0062</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.8163</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.0333</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.0193</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT18"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45138.61956073543</v>
+        <v>45138.61956074074</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3028,6 +3028,146 @@
       </c>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="2" t="n">
+        <v>45139.12527967931</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
+      <c r="L19" t="n">
+        <v>40</v>
+      </c>
+      <c r="M19" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N19" t="n">
+        <v>50</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>200</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>16</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AT20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3032,7 +3032,7 @@
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" s="2" t="n">
-        <v>45139.12527967931</v>
+        <v>45139.12527967593</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3168,6 +3168,146 @@
       </c>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="2" t="n">
+        <v>45139.12553775519</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
+      <c r="L20" t="n">
+        <v>40</v>
+      </c>
+      <c r="M20" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N20" t="n">
+        <v>50</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>200</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>16</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT20"/>
+  <dimension ref="A1:AT21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3172,7 +3172,7 @@
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" s="2" t="n">
-        <v>45139.12553775519</v>
+        <v>45139.12553775463</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3308,6 +3308,146 @@
       </c>
       <c r="AS20" t="inlineStr"/>
       <c r="AT20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="2" t="n">
+        <v>45139.1256848908</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
+      <c r="L21" t="n">
+        <v>40</v>
+      </c>
+      <c r="M21" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N21" t="n">
+        <v>50</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>200</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2555</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app新試體資料.xlsx
+++ b/app新試體資料.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT21"/>
+  <dimension ref="A1:AT22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3312,7 +3312,7 @@
     <row r="21">
       <c r="A21" t="inlineStr"/>
       <c r="B21" s="2" t="n">
-        <v>45139.1256848908</v>
+        <v>45139.12568489584</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3448,6 +3448,146 @@
       </c>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="2" t="n">
+        <v>45139.12573412728</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>單曲率</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>191250</v>
+      </c>
+      <c r="K22" t="n">
+        <v>50</v>
+      </c>
+      <c r="L22" t="n">
+        <v>40</v>
+      </c>
+      <c r="M22" t="n">
+        <v>41.047</v>
+      </c>
+      <c r="N22" t="n">
+        <v>50</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>200</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>#8 (D25)</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>7004</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>#3 (D10)</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2555</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>閉合</t>
+        </is>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="n">
+        <v>0.0181</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.5697</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2621</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.0243</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
